--- a/data/processed/ORCL_Monthly_Adjusted_Index.xlsx
+++ b/data/processed/ORCL_Monthly_Adjusted_Index.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H314"/>
+  <dimension ref="A1:H315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12958,7 +12958,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>46015</v>
+        <v>46022</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -12977,20 +12977,60 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>197.4900</t>
+          <t>194.9100</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>197.4900</t>
+          <t>194.9100</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>639662268</t>
+          <t>690225434</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>197.4700</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>201.6900</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>186.1500</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>189.6700</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>189.6700</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>84266336</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
         <is>
           <t>0.0000</t>
         </is>
